--- a/xlsx/country_comparison/transfer_how_negative.xlsx
+++ b/xlsx/country_comparison/transfer_how_negative.xlsx
@@ -450,40 +450,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.537579938105479</v>
+        <v>0.5382871916891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.56415189850979</v>
+        <v>0.557569517548754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.495933125266425</v>
+        <v>0.488506960958848</v>
       </c>
       <c r="E2" t="n">
-        <v>0.705704034061675</v>
+        <v>0.687560880792912</v>
       </c>
       <c r="F2" t="n">
-        <v>0.496949338405407</v>
+        <v>0.49724009732681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.404062530071785</v>
+        <v>0.415898649661229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52382002569649</v>
+        <v>0.51799343061249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.623750051456994</v>
+        <v>0.615217088841855</v>
       </c>
       <c r="J2" t="n">
-        <v>0.660640670195271</v>
+        <v>0.653679923236605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.502467704739745</v>
+        <v>0.505651914243097</v>
       </c>
       <c r="L2" t="n">
-        <v>0.183965835927531</v>
+        <v>0.184894537806917</v>
       </c>
       <c r="M2" t="n">
-        <v>0.552403343859262</v>
+        <v>0.560430937152963</v>
       </c>
     </row>
     <row r="3">
@@ -491,40 +491,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.431737203551647</v>
+        <v>0.432845722201309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.446279631900939</v>
+        <v>0.442421745583781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365102796147465</v>
+        <v>0.370796385473362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.516434748386412</v>
+        <v>0.495531790059211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4409252633048</v>
+        <v>0.441301468922734</v>
       </c>
       <c r="G3" t="n">
-        <v>0.291955422407852</v>
+        <v>0.305097274398613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.492236349029592</v>
+        <v>0.48545947045262</v>
       </c>
       <c r="I3" t="n">
-        <v>0.490872273234326</v>
+        <v>0.489248737743685</v>
       </c>
       <c r="J3" t="n">
-        <v>0.508645881427826</v>
+        <v>0.492100673226885</v>
       </c>
       <c r="K3" t="n">
-        <v>0.356381427054803</v>
+        <v>0.360223259400779</v>
       </c>
       <c r="L3" t="n">
-        <v>0.187289189011661</v>
+        <v>0.188835318183711</v>
       </c>
       <c r="M3" t="n">
-        <v>0.466571407113042</v>
+        <v>0.472227971956269</v>
       </c>
     </row>
     <row r="4">
@@ -532,40 +532,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.359297107872561</v>
+        <v>0.361010253212442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.397086146902427</v>
+        <v>0.390980124704781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31691789340774</v>
+        <v>0.323422401946982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.52685885905565</v>
+        <v>0.491581831156707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.361163716054718</v>
+        <v>0.361110568926222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.293425368717998</v>
+        <v>0.316324917284088</v>
       </c>
       <c r="H4" t="n">
-        <v>0.328371461896109</v>
+        <v>0.329257091621633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.447522154225967</v>
+        <v>0.437256831087468</v>
       </c>
       <c r="J4" t="n">
-        <v>0.45931912207083</v>
+        <v>0.461765001243795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.367019718621502</v>
+        <v>0.377266258788955</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0780670123358978</v>
+        <v>0.0765006775617005</v>
       </c>
       <c r="M4" t="n">
-        <v>0.337964939448877</v>
+        <v>0.345515017469271</v>
       </c>
     </row>
     <row r="5">
@@ -573,40 +573,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.264663899757411</v>
+        <v>0.265318665611386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.255707486492697</v>
+        <v>0.257271273632307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232417155918039</v>
+        <v>0.232999044063815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.284941538391065</v>
+        <v>0.298203733106487</v>
       </c>
       <c r="F5" t="n">
-        <v>0.244842939143037</v>
+        <v>0.243013944992745</v>
       </c>
       <c r="G5" t="n">
-        <v>0.192025559992147</v>
+        <v>0.19874602475033</v>
       </c>
       <c r="H5" t="n">
-        <v>0.272628878771828</v>
+        <v>0.26796225201325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.270769871838936</v>
+        <v>0.266992657643701</v>
       </c>
       <c r="J5" t="n">
-        <v>0.297836752405666</v>
+        <v>0.270097919002897</v>
       </c>
       <c r="K5" t="n">
-        <v>0.248005736729224</v>
+        <v>0.250204190799857</v>
       </c>
       <c r="L5" t="n">
-        <v>0.159940993272323</v>
+        <v>0.159913415226431</v>
       </c>
       <c r="M5" t="n">
-        <v>0.290736276089176</v>
+        <v>0.289802782544736</v>
       </c>
     </row>
     <row r="6">
@@ -614,40 +614,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217872960868524</v>
+        <v>0.217433319061305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.218049726145703</v>
+        <v>0.218100268715078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239330491574601</v>
+        <v>0.235957029224709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.220933278500457</v>
+        <v>0.230545721877885</v>
       </c>
       <c r="F6" t="n">
-        <v>0.131114073738897</v>
+        <v>0.130758178882751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.197360156706987</v>
+        <v>0.197086189664188</v>
       </c>
       <c r="H6" t="n">
-        <v>0.235029475170139</v>
+        <v>0.232639338045131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.265953971621808</v>
+        <v>0.258065773851118</v>
       </c>
       <c r="J6" t="n">
-        <v>0.267740636502332</v>
+        <v>0.279079982201088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.200466259562255</v>
+        <v>0.19921510012303</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0820939317538778</v>
+        <v>0.0815017965479345</v>
       </c>
       <c r="M6" t="n">
-        <v>0.236561994935224</v>
+        <v>0.235897551340759</v>
       </c>
     </row>
     <row r="7">
@@ -655,40 +655,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156041828476124</v>
+        <v>0.153418108921597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15582161701892</v>
+        <v>0.148642685042529</v>
       </c>
       <c r="D7" t="n">
-        <v>0.173808213507394</v>
+        <v>0.175627249757498</v>
       </c>
       <c r="E7" t="n">
-        <v>0.207152279640771</v>
+        <v>0.179602442169105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0777799692275922</v>
+        <v>0.077686193816273</v>
       </c>
       <c r="G7" t="n">
-        <v>0.123145210252545</v>
+        <v>0.135259036743797</v>
       </c>
       <c r="H7" t="n">
-        <v>0.12506427488676</v>
+        <v>0.122006606899561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.181226018686533</v>
+        <v>0.170554730129224</v>
       </c>
       <c r="J7" t="n">
-        <v>0.189294467750002</v>
+        <v>0.179767342693964</v>
       </c>
       <c r="K7" t="n">
-        <v>0.180120391108685</v>
+        <v>0.180838208679108</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0244105887400182</v>
+        <v>0.0245759195118459</v>
       </c>
       <c r="M7" t="n">
-        <v>0.158396774592844</v>
+        <v>0.159403190165947</v>
       </c>
     </row>
     <row r="8">
@@ -696,40 +696,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151951160510222</v>
+        <v>0.151589989446983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159538900910585</v>
+        <v>0.160874731720052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194801338441464</v>
+        <v>0.190029431763716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.139174003625198</v>
+        <v>0.144785132100891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.154110165113257</v>
+        <v>0.153005342404257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.176445270702213</v>
+        <v>0.194603597790567</v>
       </c>
       <c r="H8" t="n">
-        <v>0.173769859222872</v>
+        <v>0.167756168989117</v>
       </c>
       <c r="I8" t="n">
-        <v>0.130915922485332</v>
+        <v>0.130678313025734</v>
       </c>
       <c r="J8" t="n">
-        <v>0.188582062537675</v>
+        <v>0.190588995279172</v>
       </c>
       <c r="K8" t="n">
-        <v>0.121736877207081</v>
+        <v>0.120498885552597</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0733412312963157</v>
+        <v>0.0731370665675173</v>
       </c>
       <c r="M8" t="n">
-        <v>0.162197898381254</v>
+        <v>0.160232965703902</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_negative.xlsx
+++ b/xlsx/country_comparison/transfer_how_negative.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -66,13 +69,13 @@
   </si>
   <si>
     <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development aid agencies</t>
   </si>
   <si>
     <t xml:space="preserve">Targeted cash transfers (child allowances,
 disability &amp; elderly pensions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development aid agencies</t>
   </si>
 </sst>
 </file>
@@ -444,13 +447,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5382871916891</v>
+        <v>0.507702178811966</v>
       </c>
       <c r="C2" t="n">
         <v>0.557569517548754</v>
@@ -474,24 +480,27 @@
         <v>0.615217088841855</v>
       </c>
       <c r="J2" t="n">
-        <v>0.653679923236605</v>
+        <v>0.653679923236606</v>
       </c>
       <c r="K2" t="n">
         <v>0.505651914243097</v>
       </c>
       <c r="L2" t="n">
+        <v>0.320028733881805</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.184894537806917</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.560430937152963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.432845722201309</v>
+        <v>0.418881040103166</v>
       </c>
       <c r="C3" t="n">
         <v>0.442421745583781</v>
@@ -521,18 +530,21 @@
         <v>0.360223259400779</v>
       </c>
       <c r="L3" t="n">
+        <v>0.333192013021783</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.188835318183711</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.472227971956269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.361010253212442</v>
+        <v>0.329167065525024</v>
       </c>
       <c r="C4" t="n">
         <v>0.390980124704781</v>
@@ -541,7 +553,7 @@
         <v>0.323422401946982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491581831156707</v>
+        <v>0.491581831156708</v>
       </c>
       <c r="F4" t="n">
         <v>0.361110568926222</v>
@@ -562,18 +574,21 @@
         <v>0.377266258788955</v>
       </c>
       <c r="L4" t="n">
+        <v>0.133773303395095</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0765006775617005</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.345515017469271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.265318665611386</v>
+        <v>0.28852886111666</v>
       </c>
       <c r="C5" t="n">
         <v>0.257271273632307</v>
@@ -603,18 +618,21 @@
         <v>0.250204190799857</v>
       </c>
       <c r="L5" t="n">
+        <v>0.430949508950819</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.159913415226431</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.289802782544736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217433319061305</v>
+        <v>0.211479578431334</v>
       </c>
       <c r="C6" t="n">
         <v>0.218100268715078</v>
@@ -644,92 +662,101 @@
         <v>0.19921510012303</v>
       </c>
       <c r="L6" t="n">
+        <v>0.174946685058489</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.0815017965479345</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.235897551340759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.153418108921597</v>
+        <v>0.159797961701056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148642685042529</v>
+        <v>0.160874731720052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175627249757498</v>
+        <v>0.190029431763716</v>
       </c>
       <c r="E7" t="n">
-        <v>0.179602442169105</v>
+        <v>0.144785132100891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.077686193816273</v>
+        <v>0.153005342404257</v>
       </c>
       <c r="G7" t="n">
-        <v>0.135259036743797</v>
+        <v>0.194603597790567</v>
       </c>
       <c r="H7" t="n">
-        <v>0.122006606899561</v>
+        <v>0.167756168989117</v>
       </c>
       <c r="I7" t="n">
-        <v>0.170554730129224</v>
+        <v>0.130678313025734</v>
       </c>
       <c r="J7" t="n">
-        <v>0.179767342693964</v>
+        <v>0.190588995279172</v>
       </c>
       <c r="K7" t="n">
-        <v>0.180838208679108</v>
+        <v>0.120498885552597</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0245759195118459</v>
+        <v>0.210163100829856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.159403190165947</v>
+        <v>0.0731370665675173</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.160232965703902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151589989446983</v>
+        <v>0.140074040507926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160874731720052</v>
+        <v>0.148642685042529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190029431763716</v>
+        <v>0.175627249757498</v>
       </c>
       <c r="E8" t="n">
-        <v>0.144785132100891</v>
+        <v>0.179602442169105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.153005342404257</v>
+        <v>0.077686193816273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.194603597790567</v>
+        <v>0.135259036743797</v>
       </c>
       <c r="H8" t="n">
-        <v>0.167756168989117</v>
+        <v>0.122006606899561</v>
       </c>
       <c r="I8" t="n">
-        <v>0.130678313025734</v>
+        <v>0.170554730129224</v>
       </c>
       <c r="J8" t="n">
-        <v>0.190588995279172</v>
+        <v>0.179767342693964</v>
       </c>
       <c r="K8" t="n">
-        <v>0.120498885552597</v>
+        <v>0.180838208679108</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0731370665675173</v>
+        <v>0.058193176221955</v>
       </c>
       <c r="M8" t="n">
-        <v>0.160232965703902</v>
+        <v>0.0245759195118459</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.159403190165947</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_negative.xlsx
+++ b/xlsx/country_comparison/transfer_how_negative.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.507702178811966</v>
+        <v>0.508078714779342</v>
       </c>
       <c r="C2" t="n">
         <v>0.557569517548754</v>
@@ -483,16 +483,16 @@
         <v>0.653679923236606</v>
       </c>
       <c r="K2" t="n">
-        <v>0.505651914243097</v>
+        <v>0.505667682941709</v>
       </c>
       <c r="L2" t="n">
-        <v>0.320028733881805</v>
+        <v>0.323237700209371</v>
       </c>
       <c r="M2" t="n">
         <v>0.184894537806917</v>
       </c>
       <c r="N2" t="n">
-        <v>0.560430937152963</v>
+        <v>0.559993693961333</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.418881040103166</v>
+        <v>0.419219975683817</v>
       </c>
       <c r="C3" t="n">
         <v>0.442421745583781</v>
@@ -527,16 +527,16 @@
         <v>0.492100673226885</v>
       </c>
       <c r="K3" t="n">
-        <v>0.360223259400779</v>
+        <v>0.360238939066838</v>
       </c>
       <c r="L3" t="n">
-        <v>0.333192013021783</v>
+        <v>0.336257055647648</v>
       </c>
       <c r="M3" t="n">
         <v>0.188835318183711</v>
       </c>
       <c r="N3" t="n">
-        <v>0.472227971956269</v>
+        <v>0.471735134719975</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.329167065525024</v>
+        <v>0.328949086158621</v>
       </c>
       <c r="C4" t="n">
         <v>0.390980124704781</v>
@@ -571,16 +571,16 @@
         <v>0.461765001243795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.377266258788955</v>
+        <v>0.377435624645372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.133773303395095</v>
+        <v>0.132958483828254</v>
       </c>
       <c r="M4" t="n">
         <v>0.0765006775617005</v>
       </c>
       <c r="N4" t="n">
-        <v>0.345515017469271</v>
+        <v>0.345066566784862</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28852886111666</v>
+        <v>0.289428350245306</v>
       </c>
       <c r="C5" t="n">
         <v>0.257271273632307</v>
@@ -609,22 +609,22 @@
         <v>0.26796225201325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.266992657643701</v>
+        <v>0.266992657643702</v>
       </c>
       <c r="J5" t="n">
         <v>0.270097919002897</v>
       </c>
       <c r="K5" t="n">
-        <v>0.250204190799857</v>
+        <v>0.250204905045935</v>
       </c>
       <c r="L5" t="n">
-        <v>0.430949508950819</v>
+        <v>0.438006159310037</v>
       </c>
       <c r="M5" t="n">
         <v>0.159913415226431</v>
       </c>
       <c r="N5" t="n">
-        <v>0.289802782544736</v>
+        <v>0.289529194088368</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.211479578431334</v>
+        <v>0.211453334098532</v>
       </c>
       <c r="C6" t="n">
         <v>0.218100268715078</v>
@@ -659,16 +659,16 @@
         <v>0.279079982201088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.19921510012303</v>
+        <v>0.199156900066447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.174946685058489</v>
+        <v>0.174996466998978</v>
       </c>
       <c r="M6" t="n">
         <v>0.0815017965479345</v>
       </c>
       <c r="N6" t="n">
-        <v>0.235897551340759</v>
+        <v>0.235722074968876</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.159797961701056</v>
+        <v>0.160421439139699</v>
       </c>
       <c r="C7" t="n">
         <v>0.160874731720052</v>
@@ -703,16 +703,16 @@
         <v>0.190588995279172</v>
       </c>
       <c r="K7" t="n">
-        <v>0.120498885552597</v>
+        <v>0.120443880469889</v>
       </c>
       <c r="L7" t="n">
-        <v>0.210163100829856</v>
+        <v>0.215073429258325</v>
       </c>
       <c r="M7" t="n">
         <v>0.0731370665675173</v>
       </c>
       <c r="N7" t="n">
-        <v>0.160232965703902</v>
+        <v>0.16005888034779</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.140074040507926</v>
+        <v>0.140257394460344</v>
       </c>
       <c r="C8" t="n">
         <v>0.148642685042529</v>
@@ -747,16 +747,16 @@
         <v>0.179767342693964</v>
       </c>
       <c r="K8" t="n">
-        <v>0.180838208679108</v>
+        <v>0.180866000506904</v>
       </c>
       <c r="L8" t="n">
-        <v>0.058193176221955</v>
+        <v>0.0599345684965459</v>
       </c>
       <c r="M8" t="n">
         <v>0.0245759195118459</v>
       </c>
       <c r="N8" t="n">
-        <v>0.159403190165947</v>
+        <v>0.159131435458947</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_negative.xlsx
+++ b/xlsx/country_comparison/transfer_how_negative.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.508078714779342</v>
+        <v>0.508276178634346</v>
       </c>
       <c r="C2" t="n">
         <v>0.557569517548754</v>
@@ -480,13 +480,13 @@
         <v>0.615217088841855</v>
       </c>
       <c r="J2" t="n">
-        <v>0.653679923236606</v>
+        <v>0.653679923236605</v>
       </c>
       <c r="K2" t="n">
         <v>0.505667682941709</v>
       </c>
       <c r="L2" t="n">
-        <v>0.323237700209371</v>
+        <v>0.324648672774993</v>
       </c>
       <c r="M2" t="n">
         <v>0.184894537806917</v>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419219975683817</v>
+        <v>0.419344512346552</v>
       </c>
       <c r="C3" t="n">
         <v>0.442421745583781</v>
@@ -530,7 +530,7 @@
         <v>0.360238939066838</v>
       </c>
       <c r="L3" t="n">
-        <v>0.336257055647648</v>
+        <v>0.337146928959041</v>
       </c>
       <c r="M3" t="n">
         <v>0.188835318183711</v>
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.328949086158621</v>
+        <v>0.328814969693133</v>
       </c>
       <c r="C4" t="n">
         <v>0.390980124704781</v>
@@ -574,7 +574,7 @@
         <v>0.377435624645372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.132958483828254</v>
+        <v>0.132000158298768</v>
       </c>
       <c r="M4" t="n">
         <v>0.0765006775617005</v>
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289428350245306</v>
+        <v>0.289690035422363</v>
       </c>
       <c r="C5" t="n">
         <v>0.257271273632307</v>
@@ -618,7 +618,7 @@
         <v>0.250204905045935</v>
       </c>
       <c r="L5" t="n">
-        <v>0.438006159310037</v>
+        <v>0.439876023572784</v>
       </c>
       <c r="M5" t="n">
         <v>0.159913415226431</v>
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.211453334098532</v>
+        <v>0.211560173873879</v>
       </c>
       <c r="C6" t="n">
         <v>0.218100268715078</v>
@@ -662,7 +662,7 @@
         <v>0.199156900066447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.174996466998978</v>
+        <v>0.175759887686414</v>
       </c>
       <c r="M6" t="n">
         <v>0.0815017965479345</v>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.160421439139699</v>
+        <v>0.160274003138837</v>
       </c>
       <c r="C7" t="n">
         <v>0.160874731720052</v>
@@ -685,7 +685,7 @@
         <v>0.190029431763716</v>
       </c>
       <c r="E7" t="n">
-        <v>0.144785132100891</v>
+        <v>0.14478513210089</v>
       </c>
       <c r="F7" t="n">
         <v>0.153005342404257</v>
@@ -706,7 +706,7 @@
         <v>0.120443880469889</v>
       </c>
       <c r="L7" t="n">
-        <v>0.215073429258325</v>
+        <v>0.21401992935377</v>
       </c>
       <c r="M7" t="n">
         <v>0.0731370665675173</v>
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.140257394460344</v>
+        <v>0.140332322765664</v>
       </c>
       <c r="C8" t="n">
         <v>0.148642685042529</v>
@@ -750,7 +750,7 @@
         <v>0.180866000506904</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0599345684965459</v>
+        <v>0.0604699666492473</v>
       </c>
       <c r="M8" t="n">
         <v>0.0245759195118459</v>
